--- a/employment_rates/KY/KY_data.xlsx
+++ b/employment_rates/KY/KY_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/employment_rates/KY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EF189E-9F2F-EA41-95A8-2221BB7F73F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C941589-4D25-4847-8732-C65D1BB61B42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="806" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="0" windowWidth="12320" windowHeight="9500" tabRatio="806" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="National &amp; Statewide" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3739" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3729" uniqueCount="174">
   <si>
     <t>Month</t>
   </si>
@@ -1173,9 +1173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F7"/>
-    </sheetView>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1304,16 +1302,16 @@
         <v>11</v>
       </c>
       <c r="C7" s="19">
-        <v>2030556</v>
+        <v>2029333</v>
       </c>
       <c r="D7" s="19">
-        <v>1807888</v>
+        <v>1809019</v>
       </c>
       <c r="E7" s="19">
-        <v>222668</v>
+        <v>220314</v>
       </c>
       <c r="F7" s="18">
-        <v>0.11</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1323,10 +1321,18 @@
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="18"/>
+      <c r="C8" s="19">
+        <v>1920269</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1837555</v>
+      </c>
+      <c r="E8" s="19">
+        <v>82714</v>
+      </c>
+      <c r="F8" s="18">
+        <v>4.2999999999999997E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
@@ -1515,10 +1521,18 @@
       <c r="B21" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="22"/>
+      <c r="C21" s="19">
+        <v>159932000</v>
+      </c>
+      <c r="D21" s="19">
+        <v>142182000</v>
+      </c>
+      <c r="E21" s="19">
+        <v>17750000</v>
+      </c>
+      <c r="F21" s="22">
+        <v>0.111</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
@@ -1690,16 +1704,16 @@
         <v>11</v>
       </c>
       <c r="C33" s="19">
-        <v>2040012</v>
+        <v>2037060</v>
       </c>
       <c r="D33" s="19">
-        <v>1818002</v>
+        <v>1819169</v>
       </c>
       <c r="E33" s="19">
-        <v>222010</v>
+        <v>217891</v>
       </c>
       <c r="F33" s="18">
-        <v>0.109</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1709,10 +1723,18 @@
       <c r="B34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="18"/>
+      <c r="C34" s="19">
+        <v>1950426</v>
+      </c>
+      <c r="D34" s="19">
+        <v>1855883</v>
+      </c>
+      <c r="E34" s="19">
+        <v>94543</v>
+      </c>
+      <c r="F34" s="18">
+        <v>4.8000000000000001E-2</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
@@ -1905,10 +1927,18 @@
       <c r="B47" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="22"/>
+      <c r="C47" s="19">
+        <v>160883000</v>
+      </c>
+      <c r="D47" s="19">
+        <v>142811000</v>
+      </c>
+      <c r="E47" s="19">
+        <v>18072000</v>
+      </c>
+      <c r="F47" s="22">
+        <v>0.112</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
@@ -2007,7 +2037,7 @@
 2020 LAUS
 </oddHeader>
     <oddFooter>&amp;L&amp;"Gill Sans MT,Regular"&amp;9Source: Local Area Unemployment Statistics (LAUS) Program
-Updated:  June 18, 2020&amp;R&amp;G</oddFooter>
+Updated:  July 16, 2020&amp;R&amp;G</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
@@ -2015,11 +2045,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1633"/>
+  <dimension ref="A1:F1627"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1594" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="I1625" sqref="I1625"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -26059,106 +26087,6 @@
       <c r="D1627" s="13"/>
       <c r="E1627" s="13"/>
       <c r="F1627" s="14"/>
-    </row>
-    <row r="1629" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1629" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1629" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1629" s="17">
-        <v>2084752</v>
-      </c>
-      <c r="D1629" s="17">
-        <v>1994520</v>
-      </c>
-      <c r="E1629" s="17">
-        <v>90232</v>
-      </c>
-      <c r="F1629" s="18">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="1630" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1630" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1630" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1630" s="19">
-        <v>2084089</v>
-      </c>
-      <c r="D1630" s="19">
-        <v>1995951</v>
-      </c>
-      <c r="E1630" s="19">
-        <v>88138</v>
-      </c>
-      <c r="F1630" s="18">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="1631" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1631" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1631" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1631" s="19">
-        <v>2066275</v>
-      </c>
-      <c r="D1631" s="19">
-        <v>1958322</v>
-      </c>
-      <c r="E1631" s="19">
-        <v>107953</v>
-      </c>
-      <c r="F1631" s="18">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="1632" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1632" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1632" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1632" s="19">
-        <v>2052263</v>
-      </c>
-      <c r="D1632" s="19">
-        <v>1712526</v>
-      </c>
-      <c r="E1632" s="19">
-        <v>339737</v>
-      </c>
-      <c r="F1632" s="18">
-        <v>0.16600000000000001</v>
-      </c>
-    </row>
-    <row r="1633" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1633" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1633" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1633" s="19">
-        <v>2030556</v>
-      </c>
-      <c r="D1633" s="19">
-        <v>1807888</v>
-      </c>
-      <c r="E1633" s="19">
-        <v>222668</v>
-      </c>
-      <c r="F1633" s="18">
-        <v>0.11</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
